--- a/hudson study page별 data.xlsx
+++ b/hudson study page별 data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shinyijin/GitHub/HudsonStudy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4512174-9A85-B84D-A3D0-D2A25D328E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796294CD-32A7-6140-844B-2B30392746EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11980" yWindow="860" windowWidth="27760" windowHeight="16100" xr2:uid="{AA46EBA0-AD32-F942-B4E4-D64048CEFBEE}"/>
+    <workbookView xWindow="2880" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{AA46EBA0-AD32-F942-B4E4-D64048CEFBEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,50 +34,170 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>4-2Page</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
   <si>
     <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>surname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>major</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>모든 study</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>분야</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>max 인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>현재 인원</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>모집 상태</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>privite여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내가 참여한 study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4-Page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5-page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>first name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>contect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>introduction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6-page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-1page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">신청자 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>firstname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>surename</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>study</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7-2 page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신청자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sure name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>when</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>study rules</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10 page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13 page</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>study mem</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>status(모집상태)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">study collection 에서 읽어오기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>current &gt; user collection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">user의 참여 study subcollection </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">study collection </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">study의 member subcollection </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>마스터도 member collection에서 그 필드에 여부 써놓은걸로 해결하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">register collection에서 읽어오기 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>현 user = master인지 확인 후 edit버튼 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -87,8 +207,17 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
@@ -118,7 +247,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -141,18 +270,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -162,6 +300,21 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -477,83 +630,500 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E5ADB4-83DD-CF41-9FEC-B535941EC8DB}">
-  <dimension ref="B3:G11"/>
+  <dimension ref="B2:L26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="40.140625" customWidth="1"/>
+    <col min="9" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="26.5703125" customWidth="1"/>
+    <col min="12" max="18" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="2:11">
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="5"/>
+      <c r="I2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="2"/>
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="2"/>
+      <c r="D4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
       <c r="C5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="2"/>
       <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="2:7">
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:7">
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
       <c r="B8" s="2"/>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="5"/>
+    </row>
+    <row r="9" spans="2:11">
       <c r="B9" s="2"/>
       <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="2"/>
-      <c r="C11" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="F11" s="2"/>
+      <c r="G11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="F13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="F17" s="2"/>
+      <c r="G17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" s="5"/>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="2"/>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="2:12">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="2:12">
+      <c r="K26" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:B11"/>
+  <mergeCells count="18">
+    <mergeCell ref="I9:I15"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:I21"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="F14:F21"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F3:F5"/>
+    <mergeCell ref="F6:F11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B5:B10"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I8:J8"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>